--- a/biology/Zoologie/Colotis_euippe/Colotis_euippe.xlsx
+++ b/biology/Zoologie/Colotis_euippe/Colotis_euippe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colotis euippe  est un insecte lépidoptère  de la famille des Pieridae, de la sous-famille des Pierinae et du genre Colotis.
 </t>
@@ -511,86 +523,91 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Colotis euippe   (Linnaeus, 1858)
-Noms vernaculaires
-Colotis euippe se nomme Round-winged Orange Tip ou Smoky Orange Tip en anglais.
-Sous-espèces
-Colotis euippe euippe (Linnaeus, 1758)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colotis euippe   (Linnaeus, 1858)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Colotis_euippe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colotis_euippe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colotis euippe se nomme Round-winged Orange Tip ou Smoky Orange Tip en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Colotis_euippe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colotis_euippe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Colotis euippe euippe (Linnaeus, 1758)
 Colotis euippe amytis (Godart)
 Colotis euippe mediata (Talbot, 1939)
 Colotis euippe omphale (Godart, 1819)
 Colotis euippe complexivus (Butler, 1886)
 Colotis euippe exole (Reiche, 1850)
-Colotis euippe mirei (Bernardi, 1960)[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Colotis_euippe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Colotis_euippe</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colotis euippe  est sur le dessus gris rayé de blanc avec une série de taches apicales ovales de couleur orange.
-Chenille et chrysalide
-Un œuf jaune donne une chenille verte.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Colotis_euippe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Colotis_euippe</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole toute l'année en plusieurs générations.
-Plantes hôtes
-Les plantes hôtes de sa chenille sont les Maerua, Capparis, Cadaba, et Boscia.
-</t>
+Colotis euippe mirei (Bernardi, 1960)</t>
         </is>
       </c>
     </row>
@@ -615,15 +632,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est  un papillon de la partie tropicale de l'Afrique..
-Biotope
-Protection
-Pas de statut de protection particulier.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colotis euippe  est sur le dessus gris rayé de blanc avec une série de taches apicales ovales de couleur orange.
 </t>
         </is>
       </c>
@@ -649,12 +665,195 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille et chrysalide</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un œuf jaune donne une chenille verte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colotis_euippe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colotis_euippe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année en plusieurs générations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colotis_euippe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colotis_euippe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont les Maerua, Capparis, Cadaba, et Boscia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colotis_euippe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colotis_euippe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est  un papillon de la partie tropicale de l'Afrique..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Colotis_euippe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colotis_euippe</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Colotis_euippe</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colotis_euippe</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un timbre du Kenya de 1987 de Colotis euippe omphale[2]
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un timbre du Kenya de 1987 de Colotis euippe omphale
 </t>
         </is>
       </c>
